--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="515">
+  <dxfs count="134">
     <dxf>
       <fill>
         <patternFill>
@@ -685,13 +685,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
@@ -971,13 +964,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF66FFFF"/>
         </patternFill>
       </fill>
@@ -1123,2921 +1109,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightVertical">
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4376,18 +1449,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:CI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM38" sqref="A28:BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="64" width="2.5" customWidth="1"/>
+    <col min="1" max="22" width="2.5" customWidth="1"/>
+    <col min="23" max="87" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -4580,8 +1654,77 @@
       <c r="BL1" s="1">
         <v>1</v>
       </c>
+      <c r="BM1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4774,8 +1917,77 @@
       <c r="BL2" s="1">
         <v>1</v>
       </c>
+      <c r="BM2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4968,8 +2180,77 @@
       <c r="BL3" s="1">
         <v>1</v>
       </c>
+      <c r="BM3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5162,8 +2443,77 @@
       <c r="BL4" s="1">
         <v>1</v>
       </c>
+      <c r="BM4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5356,8 +2706,77 @@
       <c r="BL5" s="1">
         <v>1</v>
       </c>
+      <c r="BM5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5550,8 +2969,77 @@
       <c r="BL6" s="1">
         <v>1</v>
       </c>
+      <c r="BM6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH6" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5744,8 +3232,77 @@
       <c r="BL7" s="1">
         <v>1</v>
       </c>
+      <c r="BM7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5938,8 +3495,77 @@
       <c r="BL8" s="1">
         <v>1</v>
       </c>
+      <c r="BM8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH8" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6132,8 +3758,77 @@
       <c r="BL9" s="1">
         <v>1</v>
       </c>
+      <c r="BM9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH9" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -6326,8 +4021,77 @@
       <c r="BL10" s="1">
         <v>1</v>
       </c>
+      <c r="BM10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -6520,8 +4284,77 @@
       <c r="BL11" s="1">
         <v>1</v>
       </c>
+      <c r="BM11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH11" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI11" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -6714,8 +4547,77 @@
       <c r="BL12" s="1">
         <v>1</v>
       </c>
+      <c r="BM12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH12" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -6908,8 +4810,77 @@
       <c r="BL13" s="1">
         <v>1</v>
       </c>
+      <c r="BM13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -7102,8 +5073,77 @@
       <c r="BL14" s="1">
         <v>1</v>
       </c>
+      <c r="BM14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -7296,8 +5336,77 @@
       <c r="BL15" s="1">
         <v>1</v>
       </c>
+      <c r="BM15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI15" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -7490,8 +5599,77 @@
       <c r="BL16" s="1">
         <v>1</v>
       </c>
+      <c r="BM16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH16" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI16" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -7684,8 +5862,77 @@
       <c r="BL17" s="1">
         <v>1</v>
       </c>
+      <c r="BM17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH17" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI17" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -7878,8 +6125,77 @@
       <c r="BL18" s="1">
         <v>1</v>
       </c>
+      <c r="BM18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH18" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI18" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -8072,8 +6388,77 @@
       <c r="BL19" s="1">
         <v>1</v>
       </c>
+      <c r="BM19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH19" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI19" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -8266,8 +6651,77 @@
       <c r="BL20" s="1">
         <v>1</v>
       </c>
+      <c r="BM20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH20" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI20" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -8460,8 +6914,77 @@
       <c r="BL21" s="1">
         <v>1</v>
       </c>
+      <c r="BM21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH21" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI21" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -8654,8 +7177,77 @@
       <c r="BL22" s="1">
         <v>1</v>
       </c>
+      <c r="BM22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH22" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI22" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -8848,8 +7440,77 @@
       <c r="BL23" s="1">
         <v>1</v>
       </c>
+      <c r="BM23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH23" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI23" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -9042,8 +7703,77 @@
       <c r="BL24" s="1">
         <v>1</v>
       </c>
+      <c r="BM24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY24" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH24" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI24" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -9236,8 +7966,77 @@
       <c r="BL25" s="1">
         <v>1</v>
       </c>
+      <c r="BM25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY25" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH25" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI25" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -9430,8 +8229,77 @@
       <c r="BL26" s="1">
         <v>1</v>
       </c>
+      <c r="BM26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY26" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH26" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI26" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -9623,77 +8491,3039 @@
       </c>
       <c r="BL27" s="1">
         <v>1</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY27" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH27" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI27" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2">
+        <v>99</v>
+      </c>
+      <c r="G28" s="2">
+        <v>99</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99</v>
+      </c>
+      <c r="I28" s="2">
+        <v>99</v>
+      </c>
+      <c r="J28" s="2">
+        <v>99</v>
+      </c>
+      <c r="K28" s="2">
+        <v>99</v>
+      </c>
+      <c r="L28" s="2">
+        <v>99</v>
+      </c>
+      <c r="M28" s="2">
+        <v>99</v>
+      </c>
+      <c r="N28" s="2">
+        <v>99</v>
+      </c>
+      <c r="O28" s="2">
+        <v>99</v>
+      </c>
+      <c r="P28" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>99</v>
+      </c>
+      <c r="R28" s="2">
+        <v>99</v>
+      </c>
+      <c r="S28" s="2">
+        <v>99</v>
+      </c>
+      <c r="T28" s="2">
+        <v>99</v>
+      </c>
+      <c r="U28" s="2">
+        <v>99</v>
+      </c>
+      <c r="V28" s="2">
+        <v>99</v>
+      </c>
+      <c r="W28" s="2">
+        <v>99</v>
+      </c>
+      <c r="X28" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY28" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH28" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI28" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2">
+        <v>99</v>
+      </c>
+      <c r="G29" s="2">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99</v>
+      </c>
+      <c r="I29" s="2">
+        <v>99</v>
+      </c>
+      <c r="J29" s="2">
+        <v>99</v>
+      </c>
+      <c r="K29" s="2">
+        <v>99</v>
+      </c>
+      <c r="L29" s="2">
+        <v>99</v>
+      </c>
+      <c r="M29" s="2">
+        <v>99</v>
+      </c>
+      <c r="N29" s="2">
+        <v>99</v>
+      </c>
+      <c r="O29" s="2">
+        <v>99</v>
+      </c>
+      <c r="P29" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>99</v>
+      </c>
+      <c r="R29" s="2">
+        <v>99</v>
+      </c>
+      <c r="S29" s="2">
+        <v>99</v>
+      </c>
+      <c r="T29" s="2">
+        <v>99</v>
+      </c>
+      <c r="U29" s="2">
+        <v>99</v>
+      </c>
+      <c r="V29" s="2">
+        <v>99</v>
+      </c>
+      <c r="W29" s="2">
+        <v>99</v>
+      </c>
+      <c r="X29" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY29" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH29" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI29" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>99</v>
+      </c>
+      <c r="B30" s="2">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2">
+        <v>99</v>
+      </c>
+      <c r="G30" s="2">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99</v>
+      </c>
+      <c r="I30" s="2">
+        <v>99</v>
+      </c>
+      <c r="J30" s="2">
+        <v>99</v>
+      </c>
+      <c r="K30" s="2">
+        <v>99</v>
+      </c>
+      <c r="L30" s="2">
+        <v>99</v>
+      </c>
+      <c r="M30" s="2">
+        <v>99</v>
+      </c>
+      <c r="N30" s="2">
+        <v>99</v>
+      </c>
+      <c r="O30" s="2">
+        <v>99</v>
+      </c>
+      <c r="P30" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>99</v>
+      </c>
+      <c r="R30" s="2">
+        <v>99</v>
+      </c>
+      <c r="S30" s="2">
+        <v>99</v>
+      </c>
+      <c r="T30" s="2">
+        <v>99</v>
+      </c>
+      <c r="U30" s="2">
+        <v>99</v>
+      </c>
+      <c r="V30" s="2">
+        <v>99</v>
+      </c>
+      <c r="W30" s="2">
+        <v>99</v>
+      </c>
+      <c r="X30" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY30" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH30" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI30" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2">
+        <v>99</v>
+      </c>
+      <c r="G31" s="2">
+        <v>99</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99</v>
+      </c>
+      <c r="I31" s="2">
+        <v>99</v>
+      </c>
+      <c r="J31" s="2">
+        <v>99</v>
+      </c>
+      <c r="K31" s="2">
+        <v>99</v>
+      </c>
+      <c r="L31" s="2">
+        <v>99</v>
+      </c>
+      <c r="M31" s="2">
+        <v>99</v>
+      </c>
+      <c r="N31" s="2">
+        <v>99</v>
+      </c>
+      <c r="O31" s="2">
+        <v>99</v>
+      </c>
+      <c r="P31" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>99</v>
+      </c>
+      <c r="R31" s="2">
+        <v>99</v>
+      </c>
+      <c r="S31" s="2">
+        <v>99</v>
+      </c>
+      <c r="T31" s="2">
+        <v>99</v>
+      </c>
+      <c r="U31" s="2">
+        <v>99</v>
+      </c>
+      <c r="V31" s="2">
+        <v>99</v>
+      </c>
+      <c r="W31" s="2">
+        <v>99</v>
+      </c>
+      <c r="X31" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY31" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH31" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI31" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2">
+        <v>99</v>
+      </c>
+      <c r="F32" s="2">
+        <v>99</v>
+      </c>
+      <c r="G32" s="2">
+        <v>99</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99</v>
+      </c>
+      <c r="I32" s="2">
+        <v>99</v>
+      </c>
+      <c r="J32" s="2">
+        <v>99</v>
+      </c>
+      <c r="K32" s="2">
+        <v>99</v>
+      </c>
+      <c r="L32" s="2">
+        <v>99</v>
+      </c>
+      <c r="M32" s="2">
+        <v>99</v>
+      </c>
+      <c r="N32" s="2">
+        <v>99</v>
+      </c>
+      <c r="O32" s="2">
+        <v>99</v>
+      </c>
+      <c r="P32" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>99</v>
+      </c>
+      <c r="R32" s="2">
+        <v>99</v>
+      </c>
+      <c r="S32" s="2">
+        <v>99</v>
+      </c>
+      <c r="T32" s="2">
+        <v>99</v>
+      </c>
+      <c r="U32" s="2">
+        <v>99</v>
+      </c>
+      <c r="V32" s="2">
+        <v>99</v>
+      </c>
+      <c r="W32" s="2">
+        <v>99</v>
+      </c>
+      <c r="X32" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY32" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH32" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI32" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>99</v>
+      </c>
+      <c r="B33" s="2">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2">
+        <v>99</v>
+      </c>
+      <c r="G33" s="2">
+        <v>99</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2">
+        <v>99</v>
+      </c>
+      <c r="J33" s="2">
+        <v>99</v>
+      </c>
+      <c r="K33" s="2">
+        <v>99</v>
+      </c>
+      <c r="L33" s="2">
+        <v>99</v>
+      </c>
+      <c r="M33" s="2">
+        <v>99</v>
+      </c>
+      <c r="N33" s="2">
+        <v>99</v>
+      </c>
+      <c r="O33" s="2">
+        <v>99</v>
+      </c>
+      <c r="P33" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>99</v>
+      </c>
+      <c r="R33" s="2">
+        <v>99</v>
+      </c>
+      <c r="S33" s="2">
+        <v>99</v>
+      </c>
+      <c r="T33" s="2">
+        <v>99</v>
+      </c>
+      <c r="U33" s="2">
+        <v>99</v>
+      </c>
+      <c r="V33" s="2">
+        <v>99</v>
+      </c>
+      <c r="W33" s="2">
+        <v>99</v>
+      </c>
+      <c r="X33" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY33" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH33" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI33" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2">
+        <v>99</v>
+      </c>
+      <c r="C34" s="2">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2">
+        <v>99</v>
+      </c>
+      <c r="E34" s="2">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2">
+        <v>99</v>
+      </c>
+      <c r="G34" s="2">
+        <v>99</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99</v>
+      </c>
+      <c r="I34" s="2">
+        <v>99</v>
+      </c>
+      <c r="J34" s="2">
+        <v>99</v>
+      </c>
+      <c r="K34" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" s="2">
+        <v>99</v>
+      </c>
+      <c r="M34" s="2">
+        <v>99</v>
+      </c>
+      <c r="N34" s="2">
+        <v>99</v>
+      </c>
+      <c r="O34" s="2">
+        <v>99</v>
+      </c>
+      <c r="P34" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>99</v>
+      </c>
+      <c r="R34" s="2">
+        <v>99</v>
+      </c>
+      <c r="S34" s="2">
+        <v>99</v>
+      </c>
+      <c r="T34" s="2">
+        <v>99</v>
+      </c>
+      <c r="U34" s="2">
+        <v>99</v>
+      </c>
+      <c r="V34" s="2">
+        <v>99</v>
+      </c>
+      <c r="W34" s="2">
+        <v>99</v>
+      </c>
+      <c r="X34" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY34" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH34" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI34" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2">
+        <v>99</v>
+      </c>
+      <c r="G35" s="2">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99</v>
+      </c>
+      <c r="I35" s="2">
+        <v>99</v>
+      </c>
+      <c r="J35" s="2">
+        <v>99</v>
+      </c>
+      <c r="K35" s="2">
+        <v>99</v>
+      </c>
+      <c r="L35" s="2">
+        <v>99</v>
+      </c>
+      <c r="M35" s="2">
+        <v>99</v>
+      </c>
+      <c r="N35" s="2">
+        <v>99</v>
+      </c>
+      <c r="O35" s="2">
+        <v>99</v>
+      </c>
+      <c r="P35" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>99</v>
+      </c>
+      <c r="R35" s="2">
+        <v>99</v>
+      </c>
+      <c r="S35" s="2">
+        <v>99</v>
+      </c>
+      <c r="T35" s="2">
+        <v>99</v>
+      </c>
+      <c r="U35" s="2">
+        <v>99</v>
+      </c>
+      <c r="V35" s="2">
+        <v>99</v>
+      </c>
+      <c r="W35" s="2">
+        <v>99</v>
+      </c>
+      <c r="X35" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY35" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH35" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI35" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>99</v>
+      </c>
+      <c r="B36" s="2">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2">
+        <v>99</v>
+      </c>
+      <c r="G36" s="2">
+        <v>99</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99</v>
+      </c>
+      <c r="I36" s="2">
+        <v>99</v>
+      </c>
+      <c r="J36" s="2">
+        <v>99</v>
+      </c>
+      <c r="K36" s="2">
+        <v>99</v>
+      </c>
+      <c r="L36" s="2">
+        <v>99</v>
+      </c>
+      <c r="M36" s="2">
+        <v>99</v>
+      </c>
+      <c r="N36" s="2">
+        <v>99</v>
+      </c>
+      <c r="O36" s="2">
+        <v>99</v>
+      </c>
+      <c r="P36" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>99</v>
+      </c>
+      <c r="R36" s="2">
+        <v>99</v>
+      </c>
+      <c r="S36" s="2">
+        <v>99</v>
+      </c>
+      <c r="T36" s="2">
+        <v>99</v>
+      </c>
+      <c r="U36" s="2">
+        <v>99</v>
+      </c>
+      <c r="V36" s="2">
+        <v>99</v>
+      </c>
+      <c r="W36" s="2">
+        <v>99</v>
+      </c>
+      <c r="X36" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY36" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY36" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH36" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI36" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>99</v>
+      </c>
+      <c r="B37" s="2">
+        <v>99</v>
+      </c>
+      <c r="C37" s="2">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2">
+        <v>99</v>
+      </c>
+      <c r="F37" s="2">
+        <v>99</v>
+      </c>
+      <c r="G37" s="2">
+        <v>99</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99</v>
+      </c>
+      <c r="I37" s="2">
+        <v>99</v>
+      </c>
+      <c r="J37" s="2">
+        <v>99</v>
+      </c>
+      <c r="K37" s="2">
+        <v>99</v>
+      </c>
+      <c r="L37" s="2">
+        <v>99</v>
+      </c>
+      <c r="M37" s="2">
+        <v>99</v>
+      </c>
+      <c r="N37" s="2">
+        <v>99</v>
+      </c>
+      <c r="O37" s="2">
+        <v>99</v>
+      </c>
+      <c r="P37" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>99</v>
+      </c>
+      <c r="R37" s="2">
+        <v>99</v>
+      </c>
+      <c r="S37" s="2">
+        <v>99</v>
+      </c>
+      <c r="T37" s="2">
+        <v>99</v>
+      </c>
+      <c r="U37" s="2">
+        <v>99</v>
+      </c>
+      <c r="V37" s="2">
+        <v>99</v>
+      </c>
+      <c r="W37" s="2">
+        <v>99</v>
+      </c>
+      <c r="X37" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY37" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH37" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI37" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2">
+        <v>99</v>
+      </c>
+      <c r="F38" s="2">
+        <v>99</v>
+      </c>
+      <c r="G38" s="2">
+        <v>99</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99</v>
+      </c>
+      <c r="I38" s="2">
+        <v>99</v>
+      </c>
+      <c r="J38" s="2">
+        <v>99</v>
+      </c>
+      <c r="K38" s="2">
+        <v>99</v>
+      </c>
+      <c r="L38" s="2">
+        <v>99</v>
+      </c>
+      <c r="M38" s="2">
+        <v>99</v>
+      </c>
+      <c r="N38" s="2">
+        <v>99</v>
+      </c>
+      <c r="O38" s="2">
+        <v>99</v>
+      </c>
+      <c r="P38" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>99</v>
+      </c>
+      <c r="R38" s="2">
+        <v>99</v>
+      </c>
+      <c r="S38" s="2">
+        <v>99</v>
+      </c>
+      <c r="T38" s="2">
+        <v>99</v>
+      </c>
+      <c r="U38" s="2">
+        <v>99</v>
+      </c>
+      <c r="V38" s="2">
+        <v>99</v>
+      </c>
+      <c r="W38" s="2">
+        <v>99</v>
+      </c>
+      <c r="X38" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AY38" s="2">
+        <v>99</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BA38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BE38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BF38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BL38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BN38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BO38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BP38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BQ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BR38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BT38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BU38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BV38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BW38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BX38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BY38" s="2">
+        <v>99</v>
+      </c>
+      <c r="BZ38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CA38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CB38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CC38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CD38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CE38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CF38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CG38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CH38" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI38" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BL27">
-    <cfRule type="cellIs" dxfId="324" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:CI38">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BL27">
-    <cfRule type="cellIs" dxfId="308" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:CI38">
+    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="307" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BL27">
-    <cfRule type="cellIs" dxfId="306" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:CI38">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BL1048576">
-    <cfRule type="cellIs" dxfId="286" priority="1" operator="equal">
+  <conditionalFormatting sqref="BM1:CI38 A1:BL1048576">
+    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -96,6 +96,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -231,896 +238,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF134A4D"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1154,8 +273,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5421085" y="7179129"/>
-          <a:ext cx="840922" cy="1515835"/>
+          <a:off x="1211035" y="2207079"/>
+          <a:ext cx="802822" cy="1515835"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1449,19 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI38"/>
+  <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM38" sqref="A28:BM38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="22" width="2.5" customWidth="1"/>
-    <col min="23" max="87" width="2.75" customWidth="1"/>
+    <col min="1" max="65" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1657,74 +775,8 @@
       <c r="BM1" s="2">
         <v>99</v>
       </c>
-      <c r="BN1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY1" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH1" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI1" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1920,74 +972,8 @@
       <c r="BM2" s="2">
         <v>99</v>
       </c>
-      <c r="BN2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH2" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI2" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2183,74 +1169,8 @@
       <c r="BM3" s="2">
         <v>99</v>
       </c>
-      <c r="BN3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2446,74 +1366,8 @@
       <c r="BM4" s="2">
         <v>99</v>
       </c>
-      <c r="BN4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2709,74 +1563,8 @@
       <c r="BM5" s="2">
         <v>99</v>
       </c>
-      <c r="BN5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI5" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2972,74 +1760,8 @@
       <c r="BM6" s="2">
         <v>99</v>
       </c>
-      <c r="BN6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH6" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI6" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3235,74 +1957,8 @@
       <c r="BM7" s="2">
         <v>99</v>
       </c>
-      <c r="BN7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3498,74 +2154,8 @@
       <c r="BM8" s="2">
         <v>99</v>
       </c>
-      <c r="BN8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI8" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3761,74 +2351,8 @@
       <c r="BM9" s="2">
         <v>99</v>
       </c>
-      <c r="BN9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH9" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI9" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4024,74 +2548,8 @@
       <c r="BM10" s="2">
         <v>99</v>
       </c>
-      <c r="BN10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH10" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI10" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4287,74 +2745,8 @@
       <c r="BM11" s="2">
         <v>99</v>
       </c>
-      <c r="BN11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH11" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI11" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4550,74 +2942,8 @@
       <c r="BM12" s="2">
         <v>99</v>
       </c>
-      <c r="BN12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI12" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4813,74 +3139,8 @@
       <c r="BM13" s="2">
         <v>99</v>
       </c>
-      <c r="BN13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY13" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH13" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI13" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5076,74 +3336,8 @@
       <c r="BM14" s="2">
         <v>99</v>
       </c>
-      <c r="BN14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY14" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH14" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI14" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5339,74 +3533,8 @@
       <c r="BM15" s="2">
         <v>99</v>
       </c>
-      <c r="BN15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH15" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI15" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5602,74 +3730,8 @@
       <c r="BM16" s="2">
         <v>99</v>
       </c>
-      <c r="BN16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY16" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH16" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI16" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5865,74 +3927,8 @@
       <c r="BM17" s="2">
         <v>99</v>
       </c>
-      <c r="BN17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY17" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH17" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI17" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -6128,74 +4124,8 @@
       <c r="BM18" s="2">
         <v>99</v>
       </c>
-      <c r="BN18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY18" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH18" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI18" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -6391,74 +4321,8 @@
       <c r="BM19" s="2">
         <v>99</v>
       </c>
-      <c r="BN19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY19" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH19" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI19" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6654,74 +4518,8 @@
       <c r="BM20" s="2">
         <v>99</v>
       </c>
-      <c r="BN20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY20" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH20" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI20" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -6917,74 +4715,8 @@
       <c r="BM21" s="2">
         <v>99</v>
       </c>
-      <c r="BN21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY21" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH21" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI21" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -7180,74 +4912,8 @@
       <c r="BM22" s="2">
         <v>99</v>
       </c>
-      <c r="BN22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY22" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH22" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI22" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -7443,74 +5109,8 @@
       <c r="BM23" s="2">
         <v>99</v>
       </c>
-      <c r="BN23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY23" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH23" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI23" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -7706,74 +5306,8 @@
       <c r="BM24" s="2">
         <v>99</v>
       </c>
-      <c r="BN24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY24" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH24" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI24" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -7969,74 +5503,8 @@
       <c r="BM25" s="2">
         <v>99</v>
       </c>
-      <c r="BN25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY25" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH25" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI25" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -8232,74 +5700,8 @@
       <c r="BM26" s="2">
         <v>99</v>
       </c>
-      <c r="BN26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY26" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH26" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI26" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -8495,74 +5897,8 @@
       <c r="BM27" s="2">
         <v>99</v>
       </c>
-      <c r="BN27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY27" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH27" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI27" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>99</v>
       </c>
@@ -8758,74 +6094,8 @@
       <c r="BM28" s="2">
         <v>99</v>
       </c>
-      <c r="BN28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY28" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH28" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI28" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>99</v>
       </c>
@@ -9021,74 +6291,8 @@
       <c r="BM29" s="2">
         <v>99</v>
       </c>
-      <c r="BN29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY29" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH29" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI29" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>99</v>
       </c>
@@ -9284,74 +6488,8 @@
       <c r="BM30" s="2">
         <v>99</v>
       </c>
-      <c r="BN30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY30" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH30" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI30" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>99</v>
       </c>
@@ -9547,74 +6685,8 @@
       <c r="BM31" s="2">
         <v>99</v>
       </c>
-      <c r="BN31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY31" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH31" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI31" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>99</v>
       </c>
@@ -9810,74 +6882,8 @@
       <c r="BM32" s="2">
         <v>99</v>
       </c>
-      <c r="BN32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY32" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH32" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI32" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>99</v>
       </c>
@@ -10073,74 +7079,8 @@
       <c r="BM33" s="2">
         <v>99</v>
       </c>
-      <c r="BN33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY33" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH33" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI33" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>99</v>
       </c>
@@ -10336,74 +7276,8 @@
       <c r="BM34" s="2">
         <v>99</v>
       </c>
-      <c r="BN34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY34" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH34" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI34" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>99</v>
       </c>
@@ -10599,74 +7473,8 @@
       <c r="BM35" s="2">
         <v>99</v>
       </c>
-      <c r="BN35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY35" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH35" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI35" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>99</v>
       </c>
@@ -10862,74 +7670,8 @@
       <c r="BM36" s="2">
         <v>99</v>
       </c>
-      <c r="BN36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY36" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH36" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI36" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>99</v>
       </c>
@@ -11125,74 +7867,8 @@
       <c r="BM37" s="2">
         <v>99</v>
       </c>
-      <c r="BN37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY37" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH37" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI37" s="2">
-        <v>99</v>
-      </c>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>99</v>
       </c>
@@ -11386,149 +8062,82 @@
         <v>99</v>
       </c>
       <c r="BM38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BN38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BO38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BP38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BQ38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BR38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BS38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BT38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BU38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BV38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BW38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BX38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BY38" s="2">
-        <v>99</v>
-      </c>
-      <c r="BZ38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CA38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CB38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CC38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CD38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CE38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CF38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CG38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CH38" s="2">
-        <v>99</v>
-      </c>
-      <c r="CI38" s="2">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CI38">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:BM38">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CI38">
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:BM38">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CI38">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:BM38">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM1:CI38 A1:BL1048576">
-    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:BM38">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,160 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -255,16 +408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -272,9 +425,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1211035" y="2207079"/>
-          <a:ext cx="802822" cy="1515835"/>
+        <a:xfrm flipV="1">
+          <a:off x="2149928" y="3401786"/>
+          <a:ext cx="625929" cy="435429"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -294,6 +447,316 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2966357" y="1156607"/>
+          <a:ext cx="4993822" cy="54429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13593536" y="544287"/>
+          <a:ext cx="1088571" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スイッチで開く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6490607" y="693964"/>
+          <a:ext cx="7293429" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>557895</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14505216" y="3102429"/>
+          <a:ext cx="1061356" cy="258535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スイッチで開く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9620250" y="2939143"/>
+          <a:ext cx="5197929" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9511393" y="2939143"/>
+          <a:ext cx="1483178" cy="1360714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -570,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BM1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1486,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1584,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1683,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1805,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P7" s="2">
         <v>6</v>
@@ -1880,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -2077,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -2274,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2907,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC12" s="1">
         <v>1</v>
@@ -2962,14 +3425,14 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7</v>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -3077,19 +3540,19 @@
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="1">
         <v>1</v>
@@ -3772,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -3871,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV17" s="2">
         <v>0</v>
@@ -3969,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4101,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH18" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI18" s="2">
         <v>0</v>
@@ -4166,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4301,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI19" s="2">
         <v>0</v>
@@ -4363,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4498,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH20" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI20" s="2">
         <v>0</v>
@@ -4560,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4695,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI21" s="2">
         <v>0</v>
@@ -4757,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4892,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI22" s="2">
         <v>0</v>
@@ -4954,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -5089,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="BG23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI23" s="2">
         <v>0</v>
@@ -5274,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD24" s="2">
         <v>0</v>
@@ -5286,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI24" s="2">
         <v>0</v>
@@ -5471,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD25" s="2">
         <v>0</v>
@@ -5483,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI25" s="2">
         <v>0</v>
@@ -5668,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD26" s="2">
         <v>0</v>
@@ -5680,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="BG26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI26" s="2">
         <v>0</v>
@@ -5692,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="1">
         <v>1</v>
@@ -8068,76 +8531,77 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\チーム制作\マップ変更(湧く位置はすべて同じにする)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,3674 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="513">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -406,210 +4073,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2149928" y="3401786"/>
-          <a:ext cx="625929" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2966357" y="1156607"/>
-          <a:ext cx="4993822" cy="54429"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>122466</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13593536" y="544287"/>
-          <a:ext cx="1088571" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スイッチで開く</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6490607" y="693964"/>
-          <a:ext cx="7293429" cy="517072"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
@@ -672,50 +4135,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9620250" y="2939143"/>
-          <a:ext cx="5197929" cy="231321"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1034,7 +4453,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1336,11 +4755,11 @@
       <c r="AF2" s="2">
         <v>3</v>
       </c>
-      <c r="AG2" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>3</v>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
       </c>
       <c r="AI2" s="2">
         <v>3</v>
@@ -1533,11 +4952,11 @@
       <c r="AF3" s="2">
         <v>3</v>
       </c>
-      <c r="AG3" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>3</v>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
       </c>
       <c r="AI3" s="2">
         <v>3</v>
@@ -1730,10 +5149,10 @@
       <c r="AF4" s="2">
         <v>3</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <v>3</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="1">
         <v>3</v>
       </c>
       <c r="AI4" s="2">
@@ -1761,13 +5180,13 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="2">
         <v>0</v>
@@ -1782,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1910,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="2">
         <v>0</v>
@@ -1927,10 +5346,10 @@
       <c r="AF5" s="2">
         <v>3</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>3</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="1">
         <v>3</v>
       </c>
       <c r="AI5" s="2">
@@ -1949,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1958,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="2">
         <v>11</v>
       </c>
       <c r="AS5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2">
         <v>0</v>
@@ -1979,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
         <v>11</v>
       </c>
       <c r="AZ5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -2106,8 +5525,8 @@
       <c r="Z6" s="2">
         <v>0</v>
       </c>
-      <c r="AA6" s="1">
-        <v>8</v>
+      <c r="AA6" s="2">
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
         <v>0</v>
@@ -2124,11 +5543,11 @@
       <c r="AF6" s="2">
         <v>3</v>
       </c>
-      <c r="AG6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>3</v>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
       </c>
       <c r="AI6" s="2">
         <v>3</v>
@@ -2146,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -2155,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="2">
         <v>3</v>
       </c>
       <c r="AS6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2">
         <v>0</v>
@@ -2176,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="AX6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
         <v>3</v>
       </c>
       <c r="AZ6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -2303,8 +5722,8 @@
       <c r="Z7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7" s="1">
-        <v>8</v>
+      <c r="AA7" s="2">
+        <v>0</v>
       </c>
       <c r="AB7" s="2">
         <v>0</v>
@@ -2321,11 +5740,11 @@
       <c r="AF7" s="2">
         <v>3</v>
       </c>
-      <c r="AG7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>3</v>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
       </c>
       <c r="AI7" s="2">
         <v>3</v>
@@ -2500,8 +5919,8 @@
       <c r="Z8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="1">
-        <v>8</v>
+      <c r="AA8" s="2">
+        <v>0</v>
       </c>
       <c r="AB8" s="2">
         <v>0</v>
@@ -2518,11 +5937,11 @@
       <c r="AF8" s="2">
         <v>3</v>
       </c>
-      <c r="AG8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>3</v>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
       </c>
       <c r="AI8" s="2">
         <v>3</v>
@@ -2698,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="2">
         <v>0</v>
@@ -2715,11 +6134,11 @@
       <c r="AF9" s="2">
         <v>3</v>
       </c>
-      <c r="AG9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>3</v>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
       </c>
       <c r="AI9" s="2">
         <v>3</v>
@@ -2988,16 +6407,16 @@
         <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>8</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>8</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
       </c>
       <c r="BJ10" s="1">
         <v>1</v>
@@ -3178,8 +6597,8 @@
       <c r="BC11" s="1">
         <v>1</v>
       </c>
-      <c r="BD11" s="2">
-        <v>0</v>
+      <c r="BD11" s="1">
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -3199,8 +6618,8 @@
       <c r="BJ11" s="2">
         <v>0</v>
       </c>
-      <c r="BK11" s="2">
-        <v>0</v>
+      <c r="BK11" s="1">
+        <v>1</v>
       </c>
       <c r="BL11" s="1">
         <v>1</v>
@@ -3375,8 +6794,8 @@
       <c r="BC12" s="1">
         <v>1</v>
       </c>
-      <c r="BD12" s="2">
-        <v>0</v>
+      <c r="BD12" s="1">
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3396,8 +6815,8 @@
       <c r="BJ12" s="2">
         <v>0</v>
       </c>
-      <c r="BK12" s="2">
-        <v>0</v>
+      <c r="BK12" s="1">
+        <v>1</v>
       </c>
       <c r="BL12" s="1">
         <v>1</v>
@@ -3498,22 +6917,22 @@
         <v>1</v>
       </c>
       <c r="AE13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>13</v>
       </c>
       <c r="AJ13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -3540,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="2">
         <v>7</v>
@@ -3572,8 +6991,8 @@
       <c r="BC13" s="1">
         <v>1</v>
       </c>
-      <c r="BD13" s="2">
-        <v>0</v>
+      <c r="BD13" s="1">
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3593,8 +7012,8 @@
       <c r="BJ13" s="2">
         <v>0</v>
       </c>
-      <c r="BK13" s="2">
-        <v>0</v>
+      <c r="BK13" s="1">
+        <v>1</v>
       </c>
       <c r="BL13" s="1">
         <v>1</v>
@@ -3692,10 +7111,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="2">
         <v>0</v>
@@ -3715,8 +7134,8 @@
       <c r="AK14" s="2">
         <v>0</v>
       </c>
-      <c r="AL14" s="2">
-        <v>3</v>
+      <c r="AL14" s="1">
+        <v>1</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -3769,8 +7188,8 @@
       <c r="BC14" s="1">
         <v>1</v>
       </c>
-      <c r="BD14" s="2">
-        <v>0</v>
+      <c r="BD14" s="1">
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3790,8 +7209,8 @@
       <c r="BJ14" s="2">
         <v>0</v>
       </c>
-      <c r="BK14" s="2">
-        <v>0</v>
+      <c r="BK14" s="1">
+        <v>1</v>
       </c>
       <c r="BL14" s="1">
         <v>1</v>
@@ -3886,34 +7305,34 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
       </c>
       <c r="AE15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
       </c>
-      <c r="AL15" s="2">
-        <v>3</v>
+      <c r="AL15" s="1">
+        <v>1</v>
       </c>
       <c r="AM15" s="2">
         <v>0</v>
@@ -3966,8 +7385,8 @@
       <c r="BC15" s="1">
         <v>1</v>
       </c>
-      <c r="BD15" s="2">
-        <v>0</v>
+      <c r="BD15" s="1">
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3987,8 +7406,8 @@
       <c r="BJ15" s="2">
         <v>0</v>
       </c>
-      <c r="BK15" s="2">
-        <v>0</v>
+      <c r="BK15" s="1">
+        <v>1</v>
       </c>
       <c r="BL15" s="1">
         <v>1</v>
@@ -4005,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -4026,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -4083,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4098,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2">
         <v>0</v>
@@ -4109,8 +7528,8 @@
       <c r="AK16" s="2">
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
-        <v>3</v>
+      <c r="AL16" s="1">
+        <v>1</v>
       </c>
       <c r="AM16" s="2">
         <v>0</v>
@@ -4163,8 +7582,8 @@
       <c r="BC16" s="1">
         <v>1</v>
       </c>
-      <c r="BD16" s="2">
-        <v>0</v>
+      <c r="BD16" s="1">
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -4184,8 +7603,8 @@
       <c r="BJ16" s="2">
         <v>0</v>
       </c>
-      <c r="BK16" s="2">
-        <v>0</v>
+      <c r="BK16" s="1">
+        <v>1</v>
       </c>
       <c r="BL16" s="1">
         <v>1</v>
@@ -4202,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -4229,13 +7648,13 @@
         <v>16</v>
       </c>
       <c r="L17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -4274,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="2">
         <v>0</v>
       </c>
       <c r="AC17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4289,16 +7708,16 @@
         <v>0</v>
       </c>
       <c r="AF17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="2">
         <v>0</v>
@@ -4306,8 +7725,8 @@
       <c r="AK17" s="2">
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
-        <v>3</v>
+      <c r="AL17" s="1">
+        <v>1</v>
       </c>
       <c r="AM17" s="2">
         <v>0</v>
@@ -4399,13 +7818,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -4420,19 +7839,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4471,13 +7890,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="2">
         <v>0</v>
       </c>
       <c r="AC18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4495,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2">
         <v>0</v>
@@ -4503,8 +7922,8 @@
       <c r="AK18" s="2">
         <v>0</v>
       </c>
-      <c r="AL18" s="2">
-        <v>3</v>
+      <c r="AL18" s="1">
+        <v>1</v>
       </c>
       <c r="AM18" s="2">
         <v>0</v>
@@ -4519,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="2">
         <v>0</v>
@@ -4557,29 +7976,29 @@
       <c r="BC18" s="1">
         <v>1</v>
       </c>
-      <c r="BD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH18" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>3</v>
+      <c r="BD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1</v>
       </c>
       <c r="BL18" s="1">
         <v>1</v>
@@ -4608,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -4629,13 +8048,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>1</v>
@@ -4668,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="2">
         <v>0</v>
@@ -4680,10 +8099,10 @@
         <v>0</v>
       </c>
       <c r="AE19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="2">
         <v>0</v>
@@ -4692,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="2">
         <v>0</v>
@@ -4700,8 +8119,8 @@
       <c r="AK19" s="2">
         <v>0</v>
       </c>
-      <c r="AL19" s="2">
-        <v>3</v>
+      <c r="AL19" s="1">
+        <v>1</v>
       </c>
       <c r="AM19" s="2">
         <v>0</v>
@@ -4716,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4754,29 +8173,29 @@
       <c r="BC19" s="1">
         <v>1</v>
       </c>
-      <c r="BD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH19" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="2">
-        <v>3</v>
-      </c>
-      <c r="BK19" s="2">
-        <v>3</v>
+      <c r="BD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>1</v>
       </c>
       <c r="BL19" s="1">
         <v>1</v>
@@ -4826,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>7</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>1</v>
@@ -4865,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="2">
         <v>0</v>
@@ -4874,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -4883,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
@@ -4892,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
@@ -4913,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="2">
         <v>0</v>
@@ -4951,29 +8370,29 @@
       <c r="BC20" s="1">
         <v>1</v>
       </c>
-      <c r="BD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH20" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="2">
-        <v>0</v>
+      <c r="BD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>1</v>
       </c>
       <c r="BL20" s="1">
         <v>1</v>
@@ -4990,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -5011,25 +8430,25 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>7</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>1</v>
@@ -5047,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W21" s="2">
         <v>1</v>
@@ -5062,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="2">
         <v>0</v>
@@ -5071,10 +8490,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="2">
         <v>0</v>
@@ -5086,19 +8505,19 @@
         <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="2">
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="2">
         <v>0</v>
       </c>
       <c r="AM21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN21" s="1">
         <v>1</v>
@@ -5110,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
@@ -5148,29 +8567,29 @@
       <c r="BC21" s="1">
         <v>1</v>
       </c>
-      <c r="BD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH21" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="2">
-        <v>0</v>
+      <c r="BD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>1</v>
       </c>
       <c r="BL21" s="1">
         <v>1</v>
@@ -5187,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>16</v>
@@ -5214,19 +8633,19 @@
         <v>16</v>
       </c>
       <c r="L22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>7</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>1</v>
@@ -5258,8 +8677,8 @@
       <c r="Z22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="1">
-        <v>8</v>
+      <c r="AA22" s="2">
+        <v>0</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
@@ -5268,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
@@ -5277,25 +8696,25 @@
         <v>0</v>
       </c>
       <c r="AG22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2">
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="2">
         <v>0</v>
       </c>
       <c r="AM22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="1">
         <v>1</v>
@@ -5345,29 +8764,29 @@
       <c r="BC22" s="1">
         <v>1</v>
       </c>
-      <c r="BD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH22" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK22" s="2">
-        <v>0</v>
+      <c r="BD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>1</v>
       </c>
       <c r="BL22" s="1">
         <v>1</v>
@@ -5384,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -5405,25 +8824,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>7</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>1</v>
@@ -5450,13 +8869,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="2">
         <v>0</v>
       </c>
-      <c r="AA23" s="1">
-        <v>8</v>
+      <c r="AA23" s="2">
+        <v>0</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
@@ -5465,13 +8884,13 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
       </c>
       <c r="AF23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="2">
         <v>0</v>
@@ -5486,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -5542,29 +8961,29 @@
       <c r="BC23" s="1">
         <v>1</v>
       </c>
-      <c r="BD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH23" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="2">
-        <v>0</v>
+      <c r="BD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>1</v>
       </c>
       <c r="BL23" s="1">
         <v>1</v>
@@ -5593,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -5616,17 +9035,17 @@
       <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -5662,31 +9081,31 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
       </c>
       <c r="AF24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="2">
         <v>0</v>
       </c>
       <c r="AI24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2">
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="2">
         <v>0</v>
@@ -5736,32 +9155,32 @@
       <c r="BB24" s="2">
         <v>0</v>
       </c>
-      <c r="BC24" s="2">
-        <v>7</v>
-      </c>
-      <c r="BD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG24" s="2">
-        <v>10</v>
-      </c>
-      <c r="BH24" s="2">
-        <v>10</v>
-      </c>
-      <c r="BI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="2">
-        <v>0</v>
+      <c r="BC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>1</v>
       </c>
       <c r="BL24" s="1">
         <v>1</v>
@@ -5816,14 +9235,14 @@
       <c r="O25" s="2">
         <v>1</v>
       </c>
-      <c r="P25" s="2">
-        <v>0</v>
+      <c r="P25" s="1">
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="2">
         <v>1</v>
@@ -5841,13 +9260,13 @@
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="2">
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="1">
         <v>1</v>
@@ -5859,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
@@ -5874,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="2">
         <v>0</v>
@@ -5883,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="2">
         <v>0</v>
@@ -5949,7 +9368,7 @@
         <v>10</v>
       </c>
       <c r="BH25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="2">
         <v>0</v>
@@ -6013,17 +9432,17 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="2">
-        <v>0</v>
+      <c r="P26" s="1">
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <v>1</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -6041,10 +9460,10 @@
         <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="1">
         <v>1</v>
@@ -6056,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
@@ -6065,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="2">
         <v>0</v>
@@ -6074,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="2">
         <v>0</v>
@@ -6143,10 +9562,10 @@
         <v>0</v>
       </c>
       <c r="BG26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="2">
         <v>0</v>
@@ -6155,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL26" s="1">
         <v>1</v>
@@ -6252,7 +9671,7 @@
       <c r="AC27" s="1">
         <v>1</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD27" s="2">
         <v>1</v>
       </c>
       <c r="AE27" s="1">
@@ -8531,73 +11950,78 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="6" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="7" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="8" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="12" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="13" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="15" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="16" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="19" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="9" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BO1048576">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
+      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\チーム制作\マップ変更(湧く位置はすべて同じにする)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\TEAMC\project-C-\project[C]\project[C]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="513">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -245,6 +252,183 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -574,3490 +758,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4069,122 +769,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>557895</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14505216" y="3102429"/>
-          <a:ext cx="1061356" cy="258535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スイッチで開く</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9511393" y="2939143"/>
-          <a:ext cx="1483178" cy="1360714"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4453,7 +1037,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7308,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="2">
         <v>1</v>
@@ -7624,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -7645,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -8609,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -9074,11 +5658,11 @@
       <c r="AA24" s="1">
         <v>1</v>
       </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0</v>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -9271,11 +5855,11 @@
       <c r="AA25" s="1">
         <v>1</v>
       </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>0</v>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
       </c>
       <c r="AD25" s="2">
         <v>1</v>
@@ -9468,11 +6052,11 @@
       <c r="AA26" s="1">
         <v>1</v>
       </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>0</v>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1</v>
       </c>
       <c r="AD26" s="2">
         <v>1</v>
@@ -11950,82 +8534,86 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="13" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="14" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="15" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="130" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BO1048576">
-    <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BM1048576">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -84,174 +84,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -263,165 +100,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF134A4D"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -429,169 +124,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1037,7 +569,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1558,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1603,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>0</v>
@@ -1748,11 +1280,11 @@
       <c r="AK4" s="2">
         <v>0</v>
       </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
       </c>
       <c r="AN4" s="1">
         <v>1</v>
@@ -1773,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1800,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BD4" s="2">
         <v>0</v>
@@ -1904,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
@@ -1964,28 +1496,28 @@
         <v>1</v>
       </c>
       <c r="AR5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2">
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AV5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="2">
         <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>1</v>
@@ -1997,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -2161,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="AR6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2">
         <v>0</v>
@@ -2179,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>1</v>
@@ -2194,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BD6" s="2">
         <v>0</v>
@@ -2271,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P7" s="2">
         <v>6</v>
@@ -2337,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -2391,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BD7" s="2">
         <v>0</v>
@@ -2543,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -2588,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BD8" s="2">
         <v>0</v>
@@ -2682,23 +2214,23 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
         <v>1</v>
@@ -2740,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2879,23 +2411,23 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
         <v>1</v>
@@ -2931,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
       </c>
       <c r="AN10" s="1">
         <v>1</v>
@@ -2997,16 +2529,16 @@
         <v>1</v>
       </c>
       <c r="BH10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="1">
         <v>1</v>
       </c>
-      <c r="BK10" s="1">
-        <v>1</v>
+      <c r="BK10" s="2">
+        <v>0</v>
       </c>
       <c r="BL10" s="1">
         <v>1</v>
@@ -3076,23 +2608,23 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
         <v>1</v>
@@ -3128,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
       </c>
       <c r="AN11" s="1">
         <v>1</v>
@@ -3185,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3194,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="BH11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>0</v>
       </c>
       <c r="BL11" s="1">
         <v>1</v>
@@ -3273,23 +2805,23 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
       </c>
       <c r="AA12" s="1">
         <v>1</v>
@@ -3325,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1</v>
       </c>
       <c r="AN12" s="1">
         <v>1</v>
@@ -3394,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>0</v>
       </c>
       <c r="BL12" s="1">
         <v>1</v>
@@ -3546,16 +3078,16 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AU13" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AV13" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AX13" s="1">
         <v>1</v>
@@ -3588,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="BH13" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI13" s="2">
-        <v>6</v>
-      </c>
-      <c r="BJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
       </c>
       <c r="BL13" s="1">
         <v>1</v>
@@ -3697,11 +3229,11 @@
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-      <c r="AE14" s="2">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0</v>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
       </c>
       <c r="AG14" s="2">
         <v>0</v>
@@ -3788,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>0</v>
       </c>
       <c r="BL14" s="1">
         <v>1</v>
@@ -3990,8 +3522,8 @@
       <c r="BJ15" s="2">
         <v>0</v>
       </c>
-      <c r="BK15" s="1">
-        <v>1</v>
+      <c r="BK15" s="2">
+        <v>0</v>
       </c>
       <c r="BL15" s="1">
         <v>1</v>
@@ -4176,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4187,8 +3719,8 @@
       <c r="BJ16" s="2">
         <v>0</v>
       </c>
-      <c r="BK16" s="1">
-        <v>1</v>
+      <c r="BK16" s="2">
+        <v>0</v>
       </c>
       <c r="BL16" s="1">
         <v>1</v>
@@ -4337,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="2">
         <v>0</v>
       </c>
       <c r="AW17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>0</v>
@@ -4540,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>0</v>
@@ -5313,10 +4845,10 @@
         <v>3</v>
       </c>
       <c r="AR22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1">
         <v>1</v>
@@ -5510,10 +5042,10 @@
         <v>3</v>
       </c>
       <c r="AR23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="2">
         <v>1</v>
@@ -5937,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD25" s="2">
         <v>0</v>
@@ -6134,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD26" s="2">
         <v>0</v>
@@ -8534,83 +8066,100 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BO1048576">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM1048576">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>19</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -84,7 +84,3040 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="426">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF134A4D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -569,7 +3602,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+      <selection activeCell="BO15" sqref="BO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,28 +3890,28 @@
         <v>1</v>
       </c>
       <c r="AB2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="2">
         <v>3</v>
       </c>
-      <c r="AG2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
+      <c r="AG2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>3</v>
       </c>
       <c r="AI2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="2">
         <v>0</v>
@@ -1053,20 +4086,20 @@
       <c r="AA3" s="1">
         <v>1</v>
       </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>3</v>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
       </c>
       <c r="AG3" s="1">
         <v>1</v>
@@ -1218,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1251,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="AB4" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC4" s="2">
         <v>0</v>
@@ -1265,17 +4298,17 @@
       <c r="AF4" s="2">
         <v>3</v>
       </c>
-      <c r="AG4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>3</v>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
       </c>
       <c r="AI4" s="2">
         <v>3</v>
       </c>
       <c r="AJ4" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="2">
         <v>0</v>
@@ -1344,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="2">
         <v>0</v>
@@ -1415,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1462,11 +4495,11 @@
       <c r="AF5" s="2">
         <v>3</v>
       </c>
-      <c r="AG5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>3</v>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
       </c>
       <c r="AI5" s="2">
         <v>3</v>
@@ -1514,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY5" s="2">
         <v>0</v>
@@ -1538,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="BF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="2">
         <v>3</v>
       </c>
-      <c r="BG5" s="2">
-        <v>1</v>
-      </c>
       <c r="BH5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="2">
         <v>0</v>
@@ -1612,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1735,16 +4768,16 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="2">
         <v>3</v>
       </c>
-      <c r="BG6" s="2">
-        <v>1</v>
-      </c>
       <c r="BH6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ6" s="2">
         <v>0</v>
@@ -1809,7 +4842,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1935,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="2">
         <v>0</v>
@@ -2006,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2129,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2203,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2242,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="2">
         <v>3</v>
@@ -2397,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -3114,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="2">
         <v>1</v>
@@ -3290,10 +6323,10 @@
         <v>1</v>
       </c>
       <c r="AY14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>1</v>
@@ -3317,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="BH14" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>0</v>
       </c>
       <c r="BK14" s="2">
         <v>0</v>
@@ -3487,10 +6520,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BA15" s="1">
         <v>1</v>
@@ -4263,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="2">
         <v>0</v>
@@ -4663,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="2">
         <v>0</v>
@@ -8066,99 +11099,99 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="11" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="12" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="13" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="14" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="18" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="19" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="21" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="22" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="15" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="10" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="8" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BO1048576">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="7" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM1048576">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="6" operator="equal">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="5" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="4" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="3" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="2" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
       <formula>22</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="426">
+  <dxfs count="132">
     <dxf>
       <fill>
         <patternFill>
@@ -155,2240 +155,6 @@
       <fill>
         <patternFill patternType="lightVertical">
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3601,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BO15" sqref="BO15"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE21" sqref="BE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6293,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="2">
         <v>0</v>
@@ -6323,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="AY14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>1</v>
@@ -6520,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="1">
         <v>1</v>
@@ -6693,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -6890,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="2">
         <v>0</v>
@@ -6920,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1">
         <v>1</v>
@@ -7120,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1">
         <v>1</v>
@@ -7317,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1">
         <v>1</v>
@@ -7875,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="2">
         <v>3</v>
@@ -8072,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="2">
         <v>3</v>
@@ -8657,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="AO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="2">
         <v>0</v>
@@ -11099,99 +8865,99 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="425" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="13" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="14" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="18" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="19" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="21" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="22" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="409" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="15" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="408" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="407" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="406" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BO1048576">
-    <cfRule type="cellIs" dxfId="405" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM1048576">
-    <cfRule type="cellIs" dxfId="404" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="403" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>22</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project[C]/project[C]/map2.xlsx
+++ b/project[C]/project[C]/map2.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,7 +88,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill>
@@ -358,397 +362,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF134A4D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1368,7 +983,7 @@
   <dimension ref="A1:BM38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE21" sqref="BE21"/>
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1656,25 +1271,25 @@
         <v>1</v>
       </c>
       <c r="AB2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="2">
         <v>1</v>
@@ -1886,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -2313,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
         <v>6</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>1</v>
@@ -8865,99 +8480,99 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="22" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="115" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AP27">
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="113" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM38">
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BO1048576">
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM1048576">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>22</formula>
     </cfRule>
   </conditionalFormatting>
